--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3300.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3300.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9563192596777409</v>
+        <v>0.4906516671180725</v>
       </c>
       <c r="B1">
-        <v>1.717137759219165</v>
+        <v>0.3647835552692413</v>
       </c>
       <c r="C1">
-        <v>2.528585940296453</v>
+        <v>0.4184468984603882</v>
       </c>
       <c r="D1">
-        <v>2.970813687939886</v>
+        <v>3.903028249740601</v>
       </c>
       <c r="E1">
-        <v>2.820424104554015</v>
+        <v>1.635806679725647</v>
       </c>
     </row>
   </sheetData>
